--- a/3_experts_with_kl_res/SEED/res_compare.xlsx
+++ b/3_experts_with_kl_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8677D5-CE39-4235-94F3-407440B3B9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983BB8F-8B73-406D-ACA0-46FF62D0DE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>people</t>
   </si>
@@ -564,7 +564,7 @@
       <c r="C6">
         <v>0.91180000000000005</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.89159999999999995</v>
       </c>
       <c r="E6">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.99570000000000003</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -667,7 +667,7 @@
         <v>0.8569</v>
       </c>
       <c r="D12">
-        <v>0.76080000000000003</v>
+        <v>0.77380000000000004</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -684,7 +684,7 @@
         <v>0.83020000000000005</v>
       </c>
       <c r="D13">
-        <v>0.79620000000000002</v>
+        <v>0.8165</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -718,7 +718,7 @@
         <v>0.82589999999999997</v>
       </c>
       <c r="D15" s="6">
-        <v>0.88729999999999998</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9899</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -768,8 +768,8 @@
       <c r="C18">
         <v>0.83599999999999997</v>
       </c>
-      <c r="D18">
-        <v>0.79769999999999996</v>
+      <c r="D18" s="6">
+        <v>0.83740000000000003</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -786,7 +786,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="D19">
-        <v>0.88800000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -802,8 +802,8 @@
       <c r="C20">
         <v>0.97109999999999996</v>
       </c>
-      <c r="D20">
-        <v>0.96679999999999999</v>
+      <c r="D20" s="6">
+        <v>0.98409999999999997</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -820,7 +820,7 @@
         <v>0.99570000000000003</v>
       </c>
       <c r="D21">
-        <v>0.93279999999999996</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -905,7 +905,7 @@
         <v>0.98919999999999997</v>
       </c>
       <c r="D26" s="6">
-        <v>0.99280000000000002</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -921,6 +921,9 @@
       <c r="C27">
         <v>0.93140000000000001</v>
       </c>
+      <c r="D27">
+        <v>0.91910000000000003</v>
+      </c>
       <c r="E27">
         <v>9</v>
       </c>
@@ -935,6 +938,9 @@
       <c r="C28">
         <v>0.94510000000000005</v>
       </c>
+      <c r="D28" s="6">
+        <v>0.94869999999999999</v>
+      </c>
       <c r="E28">
         <v>9</v>
       </c>
@@ -949,6 +955,9 @@
       <c r="C29">
         <v>0.85980000000000001</v>
       </c>
+      <c r="D29">
+        <v>0.79259999999999997</v>
+      </c>
       <c r="E29">
         <v>10</v>
       </c>
@@ -963,6 +972,9 @@
       <c r="C30">
         <v>0.84750000000000003</v>
       </c>
+      <c r="D30">
+        <v>0.77100000000000002</v>
+      </c>
       <c r="E30">
         <v>10</v>
       </c>
@@ -977,6 +989,9 @@
       <c r="C31">
         <v>0.95740000000000003</v>
       </c>
+      <c r="D31">
+        <v>0.92559999999999998</v>
+      </c>
       <c r="E31">
         <v>10</v>
       </c>
@@ -991,6 +1006,9 @@
       <c r="C32">
         <v>0.78539999999999999</v>
       </c>
+      <c r="D32" s="6">
+        <v>0.83379999999999999</v>
+      </c>
       <c r="E32">
         <v>11</v>
       </c>
@@ -1005,6 +1023,9 @@
       <c r="C33">
         <v>0.93930000000000002</v>
       </c>
+      <c r="D33" s="6">
+        <v>0.95809999999999995</v>
+      </c>
       <c r="E33">
         <v>11</v>
       </c>
@@ -1019,6 +1040,9 @@
       <c r="C34">
         <v>0.97470000000000001</v>
       </c>
+      <c r="D34" s="6">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="E34">
         <v>11</v>
       </c>
@@ -1033,6 +1057,9 @@
       <c r="C35">
         <v>0.8266</v>
       </c>
+      <c r="D35">
+        <v>0.81579999999999997</v>
+      </c>
       <c r="E35">
         <v>12</v>
       </c>
@@ -1047,6 +1074,9 @@
       <c r="C36">
         <v>0.79549999999999998</v>
       </c>
+      <c r="D36" s="6">
+        <v>0.84609999999999996</v>
+      </c>
       <c r="E36">
         <v>12</v>
       </c>
@@ -1061,6 +1091,9 @@
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="D37">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="E37">
         <v>12</v>
       </c>
@@ -1075,6 +1108,9 @@
       <c r="C38">
         <v>0.91180000000000005</v>
       </c>
+      <c r="D38" s="6">
+        <v>0.92700000000000005</v>
+      </c>
       <c r="E38">
         <v>13</v>
       </c>
@@ -1089,6 +1125,9 @@
       <c r="C39">
         <v>0.94940000000000002</v>
       </c>
+      <c r="D39">
+        <v>0.94869999999999999</v>
+      </c>
       <c r="E39">
         <v>13</v>
       </c>
@@ -1103,6 +1142,9 @@
       <c r="C40">
         <v>0.86629999999999996</v>
       </c>
+      <c r="D40" s="6">
+        <v>0.92410000000000003</v>
+      </c>
       <c r="E40">
         <v>13</v>
       </c>
@@ -1117,6 +1159,9 @@
       <c r="C41">
         <v>0.91400000000000003</v>
       </c>
+      <c r="D41">
+        <v>0.95809999999999995</v>
+      </c>
       <c r="E41">
         <v>14</v>
       </c>
@@ -1131,6 +1176,9 @@
       <c r="C42">
         <v>0.98839999999999995</v>
       </c>
+      <c r="D42" s="6">
+        <v>0.98919999999999997</v>
+      </c>
       <c r="E42">
         <v>14</v>
       </c>
@@ -1145,21 +1193,27 @@
       <c r="C43">
         <v>0.81499999999999995</v>
       </c>
+      <c r="D43" s="6">
+        <v>0.86050000000000004</v>
+      </c>
       <c r="E43">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>0.95589999999999997</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>0.89090000000000003</v>
       </c>
-      <c r="E44">
+      <c r="D44" s="3">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E44" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1173,6 +1227,9 @@
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45">
         <v>15</v>
       </c>
@@ -1187,6 +1244,9 @@
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="E46">
         <v>15</v>
       </c>
@@ -1202,6 +1262,10 @@
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
         <v>0.9073622222222224</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(D2:D46)</f>
+        <v>0.91284444444444468</v>
       </c>
     </row>
   </sheetData>
